--- a/excel/output.xlsx
+++ b/excel/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -38,31 +38,46 @@
     <t>Category Name</t>
   </si>
   <si>
+    <t>Fictional books</t>
+  </si>
+  <si>
+    <t>213213</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2022-03-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>JavaGANG</t>
+  </si>
+  <si>
+    <t>213213213</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2022-03-19 00:00:00.0</t>
-  </si>
-  <si>
-    <t>Fictional books</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2022-03-13 00:00:00.0</t>
+  </si>
+  <si>
+    <t>dsadsaddsad</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>2022-03-25 00:00:00.0</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>2022-03-23 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-03-15 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -144,98 +159,80 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B2"/>
+        <v>14.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B3"/>
+        <v>16.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>213.0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B4"/>
+        <v>17.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
